--- a/working/Learning Summary.xlsx
+++ b/working/Learning Summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\development\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>javascript-call(),apply(),bind(),map(),reduce(),filter(),fetch apis,made a project on fetch api -currency converter</t>
+  </si>
+  <si>
+    <t>currency converter completed ,api call,learn about ajax and calling apis using ajax and jquery.</t>
+  </si>
+  <si>
+    <t>c#-variables,datatypes,class,object,loops-for,while,do-while,functionsexception</t>
+  </si>
+  <si>
+    <t>handling,</t>
+  </si>
+  <si>
+    <t>enum,switch,polymorphism,constructor,inheritence,instance,abstraction.</t>
+  </si>
+  <si>
+    <t>function,  exception</t>
   </si>
 </sst>
 </file>
@@ -372,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,6 +465,31 @@
         <v>9</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45484</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45485</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working/Learning Summary.xlsx
+++ b/working/Learning Summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>function,  exception</t>
+  </si>
+  <si>
+    <t>c#-&gt;inheritence pratice</t>
+  </si>
+  <si>
+    <t>ice,continue,break,methods,static class ,static method,array- types,list,arraylist,polymorphism-example practice</t>
   </si>
 </sst>
 </file>
@@ -387,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,6 +496,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45488</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working/Learning Summary.xlsx
+++ b/working/Learning Summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>ice,continue,break,methods,static class ,static method,array- types,list,arraylist,polymorphism-example practice</t>
+  </si>
+  <si>
+    <t>.Net Core -Intrduction,</t>
+  </si>
+  <si>
+    <t>on,diffrence between .net framework and core, routing ,conventional routing ,attribute routing.</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +513,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45489</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working/Learning Summary.xlsx
+++ b/working/Learning Summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>on,diffrence between .net framework and core, routing ,conventional routing ,attribute routing.</t>
+  </si>
+  <si>
+    <t>.Net core map,mapget,mapPost,mapPut,mapDelete,learnt web api making ,get and post API made on VS aync await,task performed based on  js</t>
+  </si>
+  <si>
+    <t>Sql server connection,put and delete api,ssms setup,introduction of linq.why it is used in c# and types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linq =.learn breif about Ienumrable and I querable </t>
+  </si>
+  <si>
+    <t>select,typeof,where,reverse-&gt;practice in c#</t>
   </si>
 </sst>
 </file>
@@ -399,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +536,33 @@
         <v>18</v>
       </c>
     </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45490</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45492</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working/Learning Summary.xlsx
+++ b/working/Learning Summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>select,typeof,where,reverse-&gt;practice in c#</t>
+  </si>
+  <si>
+    <t>linq =&gt;all,any,contains,distinct,order by ,orderby descending,intersect,union,take,takewhile,skip,skipwhile</t>
+  </si>
+  <si>
+    <t>join,inner join,outer join,first,firstDefualt,dependency injection,single,singledefault,authorization,authentication.</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,6 +569,22 @@
         <v>22</v>
       </c>
     </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45495</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45496</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working/Learning Summary.xlsx
+++ b/working/Learning Summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>join,inner join,outer join,first,firstDefualt,dependency injection,single,singledefault,authorization,authentication.</t>
+  </si>
+  <si>
+    <t>depencency injection method=&gt;constructor,property,function,webapi completed with database connection ,migration ,code first,db first approach.</t>
+  </si>
+  <si>
+    <t>web api using dbfirst approach ,data table created for the project,lms api project category post and books get,post api</t>
+  </si>
+  <si>
+    <t>LibraryMgmtSystem project addbook,user,category,borrow record =&gt;post,get api controller completed</t>
   </si>
 </sst>
 </file>
@@ -417,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,6 +594,30 @@
         <v>24</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45497</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45498</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45499</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working/Learning Summary.xlsx
+++ b/working/Learning Summary.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>html tags,forms,input types,responsiveness,positions,images,Video,tables,div,span,introduction to git ,git hub.</t>
   </si>
@@ -108,6 +102,15 @@
   </si>
   <si>
     <t>LibraryMgmtSystem project addbook,user,category,borrow record =&gt;post,get api controller completed</t>
+  </si>
+  <si>
+    <t>project completed get by id and update API,Authorization,authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                   Topics Covered</t>
   </si>
 </sst>
 </file>
@@ -426,23 +429,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="164.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -450,7 +454,7 @@
         <v>45475</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -458,10 +462,10 @@
         <v>45476</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -469,7 +473,7 @@
         <v>45477</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -477,7 +481,7 @@
         <v>45478</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -485,7 +489,7 @@
         <v>45481</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -493,7 +497,7 @@
         <v>45482</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -501,7 +505,7 @@
         <v>45483</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -509,7 +513,7 @@
         <v>45484</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -517,16 +521,16 @@
         <v>45485</v>
       </c>
       <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
         <v>11</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -534,10 +538,10 @@
         <v>45488</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -545,10 +549,10 @@
         <v>45489</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -556,7 +560,7 @@
         <v>45490</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -564,7 +568,7 @@
         <v>45491</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -572,10 +576,10 @@
         <v>45492</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -583,7 +587,7 @@
         <v>45495</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -591,7 +595,7 @@
         <v>45496</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,7 +603,7 @@
         <v>45497</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,7 +611,7 @@
         <v>45498</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,7 +619,15 @@
         <v>45499</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45502</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/working/Learning Summary.xlsx
+++ b/working/Learning Summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>html tags,forms,input types,responsiveness,positions,images,Video,tables,div,span,introduction to git ,git hub.</t>
   </si>
@@ -111,6 +111,27 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                   Topics Covered</t>
+  </si>
+  <si>
+    <t>Registeration,login,using JWT,Authentication,Authorization applied to the project</t>
+  </si>
+  <si>
+    <t>Sql queries ,Update,delete,my sql download,set up,alter,create,primary key ,foreign key</t>
+  </si>
+  <si>
+    <t>sql practice on leetcode,hackerrank,complex queries practice,joins ,order by,distinct</t>
+  </si>
+  <si>
+    <t>triggers-&gt;update,delete,create,view in detail</t>
+  </si>
+  <si>
+    <t>Authorication access of project,Sql Queries,DML,DDL,primary key ,foreign key,unique key</t>
+  </si>
+  <si>
+    <t>create a project using .net core ,function in sql</t>
+  </si>
+  <si>
+    <t>repository pattern,addScoped,adSiglton,AddTransient,Genrics,Projectt made on repository pattern</t>
   </si>
 </sst>
 </file>
@@ -429,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,6 +651,62 @@
         <v>26</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45504</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45506</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45510</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working/Learning Summary.xlsx
+++ b/working/Learning Summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>html tags,forms,input types,responsiveness,positions,images,Video,tables,div,span,introduction to git ,git hub.</t>
   </si>
@@ -65,9 +65,6 @@
     <t>function,  exception</t>
   </si>
   <si>
-    <t>c#-&gt;inheritence pratice</t>
-  </si>
-  <si>
     <t>ice,continue,break,methods,static class ,static method,array- types,list,arraylist,polymorphism-example practice</t>
   </si>
   <si>
@@ -132,6 +129,21 @@
   </si>
   <si>
     <t>repository pattern,addScoped,adSiglton,AddTransient,Genrics,Projectt made on repository pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sql built-in function ,Edit and update of web application ,node .js set up,shesha study and set up frontend backend </t>
+  </si>
+  <si>
+    <t>c#-&gt;inheritence pratice,abstraction,polymorphism practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introducrtion to shesha ,add a table ,view </t>
+  </si>
+  <si>
+    <t>Introduction to Notarization,Its process,who is notary ,what is the work of notary ,why  to use enotary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Notarization,user interface,working,deep summary study,Components and Interactions  </t>
   </si>
 </sst>
 </file>
@@ -450,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,10 +476,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -559,10 +571,10 @@
         <v>45488</v>
       </c>
       <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
         <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -570,10 +582,10 @@
         <v>45489</v>
       </c>
       <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
         <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -581,7 +593,7 @@
         <v>45490</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -589,7 +601,7 @@
         <v>45491</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -597,10 +609,10 @@
         <v>45492</v>
       </c>
       <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
         <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -608,7 +620,7 @@
         <v>45495</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -616,7 +628,7 @@
         <v>45496</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,7 +636,7 @@
         <v>45497</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -632,7 +644,7 @@
         <v>45498</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -640,7 +652,7 @@
         <v>45499</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -648,7 +660,7 @@
         <v>45502</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -656,7 +668,7 @@
         <v>45503</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,7 +676,7 @@
         <v>45504</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,7 +684,7 @@
         <v>45505</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,7 +692,7 @@
         <v>45506</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -688,7 +700,7 @@
         <v>45509</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,7 +708,7 @@
         <v>45510</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,7 +716,39 @@
         <v>45511</v>
       </c>
       <c r="C54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C56" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45513</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45514</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/working/Learning Summary.xlsx
+++ b/working/Learning Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>html tags,forms,input types,responsiveness,positions,images,Video,tables,div,span,introduction to git ,git hub.</t>
   </si>
@@ -144,6 +144,103 @@
   </si>
   <si>
     <t xml:space="preserve">E-Notarization,user interface,working,deep summary study,Components and Interactions  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Notary system design tables ,clone repositary,postman import,learn about .Net web api </t>
+  </si>
+  <si>
+    <t>nop-commerce set up ,data base connection ,new vendor login ,package added .</t>
+  </si>
+  <si>
+    <t>new vendor added,added checkbox in ProfilePictureId_OverrideForStore,Asp .net controllers,action method ,razor syntax,routing,middlewares</t>
+  </si>
+  <si>
+    <t>getexternalorgs api added to nop commerce ,javasript execution ,memory,code</t>
+  </si>
+  <si>
+    <t>dotnet core api ,jwt key generation revise ,</t>
+  </si>
+  <si>
+    <t>mapping create between related products,Attributes,Attribute value,manufacturer</t>
+  </si>
+  <si>
+    <t>ezeoproductattribute services added,interface,constructor,override read,</t>
+  </si>
+  <si>
+    <t>mapping between  orders of ezeo and nop ,Ezeomanufaturer service added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.Net Core tutorial ,difference between  .net framework and .net core ,ErrorlogService added </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EzeoxNop Services product account  try catch block added and api controller made </t>
+  </si>
+  <si>
+    <t>middleware ,convention based routing ,attribute based routing , controller,action method ,map methods</t>
+  </si>
+  <si>
+    <t>Controller,action method,Razor,layout View, View start,sql practice</t>
+  </si>
+  <si>
+    <t>ViewData,ViewBag,Model</t>
+  </si>
+  <si>
+    <t>Repository Pattern,Strongly Typed View,How to pass model ,Install static files to the project..</t>
+  </si>
+  <si>
+    <t>_ViewImport file,TagHelpers in  Asp.NetCore ,Ezeo to nop mapping common service made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete category,delete order,delete product ,delete manufacturer made in ezeo </t>
+  </si>
+  <si>
+    <t>IsDeleted =true for product ,category,order attribute</t>
+  </si>
+  <si>
+    <t>image Tag helper,model binding,creating form using tag helper,creating dropdown ,radio button etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not map order status ,shipping status ,payment status,  Order Status mapping issue resolved
+</t>
+  </si>
+  <si>
+    <t>read image in binary on save product controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model validation,create form,form  validation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Code First Approach Of Entity Framework Core,Email And Range Validation,Regular Expression Validation,Entity Framework Core</t>
+  </si>
+  <si>
+    <t>Created CRUD Application Using Code First Approach ,Database First Approach Of Entity Framework Core,CRUD Application Using Database First Approach,What Is Session</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creating Login Form With Database Using Session &amp; Logout, Creating SignUp Form , Created DropDownList with tag helpers,Binding DropDownList With Database</t>
+  </si>
+  <si>
+    <t>Made a weather project  which have api call and MVC pattern ,_partialView in Mvc</t>
+  </si>
+  <si>
+    <t>Learnt about saakh project hit Apis and working of Account controller ,third party,company services.</t>
+  </si>
+  <si>
+    <t>Partial View With Model, Introduction To  Web API ,How To Create .NET Core Web API Project Template,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.NET Core Web API CRUD Operations  ,Creating CRUD App Using ASP.NET Core Web API,Ezeo issue resovle  </t>
+  </si>
+  <si>
+    <t>System design for Job portal Api project ,Idea and working of Job portal Apis</t>
+  </si>
+  <si>
+    <t>JWT key authetication learn,Data tables and login ,register  api made for job portal Api using repository pattern</t>
+  </si>
+  <si>
+    <t>Repository Pattern added error solved,user porfile,employer profile add,update , delete, get user profile by Id and get employerby id apis are made</t>
+  </si>
+  <si>
+    <t>Job Added Updated Learnt how to implement services and repository pattern together,Use of IActionResult,Iqueryable ,Ienumerable ,T&lt;Entity&gt; type repository</t>
   </si>
 </sst>
 </file>
@@ -179,9 +276,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,19 +562,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="C114" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="164.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="164.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -482,7 +582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45475</v>
       </c>
@@ -490,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45476</v>
       </c>
@@ -501,7 +601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45477</v>
       </c>
@@ -509,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45478</v>
       </c>
@@ -517,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45481</v>
       </c>
@@ -525,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45482</v>
       </c>
@@ -533,7 +633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45483</v>
       </c>
@@ -541,7 +641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45484</v>
       </c>
@@ -549,7 +649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45485</v>
       </c>
@@ -566,7 +666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45488</v>
       </c>
@@ -577,7 +677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45489</v>
       </c>
@@ -588,7 +688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45490</v>
       </c>
@@ -596,7 +696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45491</v>
       </c>
@@ -604,7 +704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45492</v>
       </c>
@@ -615,7 +715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45495</v>
       </c>
@@ -623,7 +723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45496</v>
       </c>
@@ -631,7 +731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45497</v>
       </c>
@@ -639,7 +739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45498</v>
       </c>
@@ -647,7 +747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45499</v>
       </c>
@@ -655,7 +755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45502</v>
       </c>
@@ -663,7 +763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45503</v>
       </c>
@@ -671,7 +771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -679,7 +779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45505</v>
       </c>
@@ -687,7 +787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45506</v>
       </c>
@@ -695,7 +795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45509</v>
       </c>
@@ -703,7 +803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45510</v>
       </c>
@@ -711,7 +811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45511</v>
       </c>
@@ -719,7 +819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45512</v>
       </c>
@@ -727,7 +827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45513</v>
       </c>
@@ -735,7 +835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45514</v>
       </c>
@@ -743,12 +843,268 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45516</v>
       </c>
       <c r="C62" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45525</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45526</v>
+      </c>
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>45527</v>
+      </c>
+      <c r="C70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>45530</v>
+      </c>
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>45531</v>
+      </c>
+      <c r="C74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>45532</v>
+      </c>
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>45533</v>
+      </c>
+      <c r="C78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>45565</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>45537</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>45538</v>
+      </c>
+      <c r="C84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>45539</v>
+      </c>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>45540</v>
+      </c>
+      <c r="C88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>45541</v>
+      </c>
+      <c r="C90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>45544</v>
+      </c>
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>45545</v>
+      </c>
+      <c r="C94" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>45546</v>
+      </c>
+      <c r="C96" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>45547</v>
+      </c>
+      <c r="C98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>45548</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>45551</v>
+      </c>
+      <c r="C101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>45552</v>
+      </c>
+      <c r="C103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>45553</v>
+      </c>
+      <c r="C105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>45554</v>
+      </c>
+      <c r="C107" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>45555</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>45558</v>
+      </c>
+      <c r="C111" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>45559</v>
+      </c>
+      <c r="C113" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>45560</v>
+      </c>
+      <c r="C115" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>45561</v>
+      </c>
+      <c r="C117" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>45562</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>45565</v>
+      </c>
+      <c r="C121" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>45566</v>
+      </c>
+      <c r="C123" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>45568</v>
+      </c>
+      <c r="C125" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
